--- a/data/Composite.xlsx
+++ b/data/Composite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robwa\GitHub\ProcessDLS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlward\Documents\GitHub\ProcessDLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC48BCF-CD9E-4B23-A9AF-8F0EEBE4190C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF6EC80-5E27-4D5F-B4CF-B008576D610A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{3CC60AF5-B51B-4F9B-BCB2-F15B8AFD493B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3CC60AF5-B51B-4F9B-BCB2-F15B8AFD493B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t xml:space="preserve"> g1</t>
+    <t xml:space="preserve"> Undiluted</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>1:19</t>
+  </si>
+  <si>
+    <t>1:24</t>
+  </si>
+  <si>
+    <t>These are maxima from discrete column values</t>
   </si>
 </sst>
 </file>
@@ -74,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +178,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v> Undiluted</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1062,7 +1087,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1971,7 +1996,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2880,7 +2905,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3789,7 +3814,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4698,7 +4723,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5607,7 +5632,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6518,7 +6543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7436,6 +7461,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7498,6 +7524,7 @@
         <c:axId val="2026675328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7698,7 +7725,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v> Undiluted</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8617,7 +8644,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9536,7 +9563,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10455,7 +10482,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11374,7 +11401,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12293,7 +12320,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13212,7 +13239,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14135,7 +14162,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> g1</c:v>
+                  <c:v>1:24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15269,6 +15296,313 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v> Undiluted</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1:1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1:2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1:3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1:4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1:9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1:19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1:24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.42E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.42E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.93E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.93E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0799999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5CC-40E2-B287-FDDA72BE1454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1561261199"/>
+        <c:axId val="1422425519"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1561261199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1422425519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1422425519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1561261199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15310,6 +15644,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16381,20 +16755,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16421,16 +17298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>12699</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16450,6 +17327,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC67B3F-70BA-4BF3-9C9D-6349E82342DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16755,44 +17668,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4E4E2F-9B4C-4965-A92F-D42EBA4AB4EB}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:U144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1.15E-6</v>
       </c>
@@ -16820,8 +17757,35 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="M2">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="N2">
+        <v>2.42E-4</v>
+      </c>
+      <c r="O2">
+        <v>2.42E-4</v>
+      </c>
+      <c r="P2">
+        <v>2.2499999999999999E-4</v>
+      </c>
+      <c r="Q2">
+        <v>1.93E-4</v>
+      </c>
+      <c r="R2">
+        <v>1.93E-4</v>
+      </c>
+      <c r="S2">
+        <v>2.0799999999999999E-4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.24E-6</v>
       </c>
@@ -16850,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.3400000000000001E-6</v>
       </c>
@@ -16879,7 +17843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.44E-6</v>
       </c>
@@ -16908,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.55E-6</v>
       </c>
@@ -16937,7 +17901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.68E-6</v>
       </c>
@@ -16966,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.81E-6</v>
       </c>
@@ -16995,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.95E-6</v>
       </c>
@@ -17024,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2.0999999999999998E-6</v>
       </c>
@@ -17053,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2.2699999999999999E-6</v>
       </c>
@@ -17082,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2.4399999999999999E-6</v>
       </c>
@@ -17111,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2.6299999999999998E-6</v>
       </c>
@@ -17140,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2.8399999999999999E-6</v>
       </c>
@@ -17169,7 +18133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.0599999999999999E-6</v>
       </c>
@@ -17198,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.3000000000000002E-6</v>
       </c>
@@ -17227,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3.5599999999999998E-6</v>
       </c>
@@ -17256,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3.8399999999999997E-6</v>
       </c>
@@ -17285,7 +18249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4.1400000000000002E-6</v>
       </c>
@@ -17314,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4.4599999999999996E-6</v>
       </c>
@@ -17343,7 +18307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4.8099999999999997E-6</v>
       </c>
@@ -17372,7 +18336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5.1900000000000003E-6</v>
       </c>
@@ -17401,7 +18365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5.5999999999999997E-6</v>
       </c>
@@ -17430,7 +18394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6.0399999999999998E-6</v>
       </c>
@@ -17459,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>6.5100000000000004E-6</v>
       </c>
@@ -17488,7 +18452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7.0199999999999997E-6</v>
       </c>
@@ -17517,7 +18481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7.5700000000000004E-6</v>
       </c>
@@ -17546,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8.1599999999999998E-6</v>
       </c>
@@ -17575,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>8.8000000000000004E-6</v>
       </c>
@@ -17604,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>9.4900000000000006E-6</v>
       </c>
@@ -17633,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1.0200000000000001E-5</v>
       </c>
@@ -17662,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1.1E-5</v>
       </c>
@@ -17691,7 +18655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1.19E-5</v>
       </c>
@@ -17720,7 +18684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1.2799999999999999E-5</v>
       </c>
@@ -17749,7 +18713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.38E-5</v>
       </c>
@@ -17778,7 +18742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1.49E-5</v>
       </c>
@@ -17807,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1.6099999999999998E-5</v>
       </c>
@@ -17836,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1.73E-5</v>
       </c>
@@ -17865,7 +18829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1.8700000000000001E-5</v>
       </c>
@@ -17894,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2.02E-5</v>
       </c>
@@ -17923,7 +18887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2.1699999999999999E-5</v>
       </c>
@@ -17952,7 +18916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2.34E-5</v>
       </c>
@@ -17981,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2.5299999999999998E-5</v>
       </c>
@@ -18010,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2.72E-5</v>
       </c>
@@ -18039,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2.94E-5</v>
       </c>
@@ -18068,7 +19032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3.1699999999999998E-5</v>
       </c>
@@ -18097,7 +19061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3.4199999999999998E-5</v>
       </c>
@@ -18126,7 +19090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3.68E-5</v>
       </c>
@@ -18155,7 +19119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3.9700000000000003E-5</v>
       </c>
@@ -18184,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4.2799999999999997E-5</v>
       </c>
@@ -18213,7 +19177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>4.6199999999999998E-5</v>
       </c>
@@ -18242,7 +19206,7 @@
         <v>0.94650000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>4.9799999999999998E-5</v>
       </c>
@@ -18271,7 +19235,7 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>5.3699999999999997E-5</v>
       </c>
@@ -18300,7 +19264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>5.7899999999999998E-5</v>
       </c>
@@ -18329,7 +19293,7 @@
         <v>87.19</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6.2399999999999999E-5</v>
       </c>
@@ -18358,7 +19322,7 @@
         <v>158.80000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>6.7299999999999996E-5</v>
       </c>
@@ -18387,7 +19351,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>7.2600000000000003E-5</v>
       </c>
@@ -18416,7 +19380,7 @@
         <v>375.1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>7.8300000000000006E-5</v>
       </c>
@@ -18445,7 +19409,7 @@
         <v>517.1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>8.4400000000000005E-5</v>
       </c>
@@ -18474,7 +19438,7 @@
         <v>677.8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>9.1000000000000003E-5</v>
       </c>
@@ -18503,7 +19467,7 @@
         <v>853.3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>9.8099999999999999E-5</v>
       </c>
@@ -18532,7 +19496,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.06E-4</v>
       </c>
@@ -18561,7 +19525,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.1400000000000001E-4</v>
       </c>
@@ -18590,7 +19554,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.2300000000000001E-4</v>
       </c>
@@ -18619,7 +19583,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.3300000000000001E-4</v>
       </c>
@@ -18648,7 +19612,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.4300000000000001E-4</v>
       </c>
@@ -18677,7 +19641,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.54E-4</v>
       </c>
@@ -18706,7 +19670,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.66E-4</v>
       </c>
@@ -18735,7 +19699,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.7899999999999999E-4</v>
       </c>
@@ -18764,7 +19728,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.93E-4</v>
       </c>
@@ -18793,7 +19757,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2.0799999999999999E-4</v>
       </c>
@@ -18822,7 +19786,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.2499999999999999E-4</v>
       </c>
@@ -18851,7 +19815,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.42E-4</v>
       </c>
@@ -18880,7 +19844,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.61E-4</v>
       </c>
@@ -18909,7 +19873,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.8200000000000002E-4</v>
       </c>
@@ -18938,7 +19902,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3.0400000000000002E-4</v>
       </c>
@@ -18967,7 +19931,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3.28E-4</v>
       </c>
@@ -18996,7 +19960,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3.5300000000000002E-4</v>
       </c>
@@ -19025,7 +19989,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3.8099999999999999E-4</v>
       </c>
@@ -19054,7 +20018,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.1100000000000002E-4</v>
       </c>
@@ -19083,7 +20047,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.4299999999999998E-4</v>
       </c>
@@ -19112,7 +20076,7 @@
         <v>834.2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.7800000000000002E-4</v>
       </c>
@@ -19141,7 +20105,7 @@
         <v>653.9</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5.1500000000000005E-4</v>
       </c>
@@ -19170,7 +20134,7 @@
         <v>489.6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5.5500000000000005E-4</v>
       </c>
@@ -19199,7 +20163,7 @@
         <v>346.2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5.9900000000000003E-4</v>
       </c>
@@ -19228,7 +20192,7 @@
         <v>226.8</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6.4599999999999998E-4</v>
       </c>
@@ -19257,7 +20221,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6.96E-4</v>
       </c>
@@ -19286,7 +20250,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7.5100000000000004E-4</v>
       </c>
@@ -19315,7 +20279,7 @@
         <v>26.14</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8.0900000000000004E-4</v>
       </c>
@@ -19344,7 +20308,7 @@
         <v>5.6079999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8.7299999999999997E-4</v>
       </c>
@@ -19373,7 +20337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9.41E-4</v>
       </c>
@@ -19402,7 +20366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1.01E-3</v>
       </c>
@@ -19431,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.09E-3</v>
       </c>
@@ -19460,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1.1800000000000001E-3</v>
       </c>
@@ -19489,7 +20453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1.2700000000000001E-3</v>
       </c>
@@ -19518,7 +20482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1.3699999999999999E-3</v>
       </c>
@@ -19547,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1.48E-3</v>
       </c>
@@ -19576,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1.5900000000000001E-3</v>
       </c>
@@ -19605,7 +20569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1.72E-3</v>
       </c>
@@ -19634,7 +20598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1.8500000000000001E-3</v>
       </c>
@@ -19663,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2E-3</v>
       </c>
@@ -19692,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2.16E-3</v>
       </c>
@@ -19721,7 +20685,7 @@
         <v>0.26790000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2.32E-3</v>
       </c>
@@ -19750,7 +20714,7 @@
         <v>1.651</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2.5100000000000001E-3</v>
       </c>
@@ -19779,7 +20743,7 @@
         <v>4.4450000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -19808,7 +20772,7 @@
         <v>8.202</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2.9099999999999998E-3</v>
       </c>
@@ -19837,7 +20801,7 @@
         <v>12.26</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3.14E-3</v>
       </c>
@@ -19866,7 +20830,7 @@
         <v>15.85</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3.3899999999999998E-3</v>
       </c>
@@ -19895,7 +20859,7 @@
         <v>18.23</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3.65E-3</v>
       </c>
@@ -19924,7 +20888,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3.9399999999999999E-3</v>
       </c>
@@ -19953,7 +20917,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4.2500000000000003E-3</v>
       </c>
@@ -19982,7 +20946,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4.5799999999999999E-3</v>
       </c>
@@ -20011,7 +20975,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4.9399999999999999E-3</v>
       </c>
@@ -20040,7 +21004,7 @@
         <v>7.2130000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5.3299999999999997E-3</v>
       </c>
@@ -20069,7 +21033,7 @@
         <v>3.5219999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5.7400000000000003E-3</v>
       </c>
@@ -20098,7 +21062,7 @@
         <v>0.98260000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6.1900000000000002E-3</v>
       </c>
@@ -20127,7 +21091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6.6800000000000002E-3</v>
       </c>
@@ -20156,7 +21120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -20185,7 +21149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7.7600000000000004E-3</v>
       </c>
@@ -20214,7 +21178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>8.3700000000000007E-3</v>
       </c>
@@ -20243,7 +21207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>9.0200000000000002E-3</v>
       </c>
@@ -20272,7 +21236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>9.7300000000000008E-3</v>
       </c>
@@ -20301,7 +21265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1.0500000000000001E-2</v>
       </c>
@@ -20330,7 +21294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1.1299999999999999E-2</v>
       </c>
@@ -20359,7 +21323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1.2200000000000001E-2</v>
       </c>
@@ -20388,7 +21352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1.32E-2</v>
       </c>
@@ -20417,7 +21381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1.4200000000000001E-2</v>
       </c>
@@ -20446,7 +21410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1.5299999999999999E-2</v>
       </c>
@@ -20475,7 +21439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1.6500000000000001E-2</v>
       </c>
@@ -20504,7 +21468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.78E-2</v>
       </c>
@@ -20533,7 +21497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1.9199999999999998E-2</v>
       </c>
@@ -20562,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2.07E-2</v>
       </c>
@@ -20591,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2.23E-2</v>
       </c>
@@ -20620,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2.4E-2</v>
       </c>
@@ -20649,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2.5899999999999999E-2</v>
       </c>
@@ -20678,7 +21642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2.7900000000000001E-2</v>
       </c>
@@ -20707,7 +21671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3.0099999999999998E-2</v>
       </c>
@@ -20736,7 +21700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3.2500000000000001E-2</v>
       </c>
@@ -20765,7 +21729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -20794,7 +21758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3.78E-2</v>
       </c>
@@ -20823,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4.07E-2</v>
       </c>
@@ -20852,7 +21816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4.3900000000000002E-2</v>
       </c>
@@ -20881,7 +21845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4.7399999999999998E-2</v>
       </c>
@@ -20910,7 +21874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5.11E-2</v>
       </c>
